--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,7 +552,11 @@
     <t>2032: reference based on AR TRANSACTION - BILL NUMBER &gt; ACCOUNTS RECEIVABLE - DEBTOR (433-.03 &gt; 430-9)</t>
   </si>
   <si>
-    <t>IB.ARTransaction.AccountsReceivableIEN,IB.ARTransaction.PatientIEN,IB.ARTransactionComment.PatientIEN,IB.ARTransactionDescription.PatientIEN,IB.ARTransactionFiscalYear.PatientIEN
+    <t>IB.ARTransaction.AccountsReceivableIEN
+IB.ARTransaction.PatientIEN
+IB.ARTransactionComment.PatientIEN
+IB.ARTransactionDescription.PatientIEN
+IB.ARTransactionFiscalYear.PatientIEN
 IB.AccountsReceivable.ARDebtorIEN</t>
   </si>
   <si>
@@ -798,7 +802,11 @@
     <t>1979: source value based on AR TRANSACTION - BILL NUMBER (433-.03)</t>
   </si>
   <si>
-    <t>IB.ARTransaction.AccountsReceivableIEN,IB.ARTransaction.PatientIEN,IB.ARTransactionComment.PatientIEN,IB.ARTransactionDescription.PatientIEN,IB.ARTransactionFiscalYear.PatientIEN</t>
+    <t>IB.ARTransaction.AccountsReceivableIEN
+IB.ARTransaction.PatientIEN
+IB.ARTransactionComment.PatientIEN
+IB.ARTransactionDescription.PatientIEN
+IB.ARTransactionFiscalYear.PatientIEN</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1166,7 +1174,10 @@
     <t>1981: source value based on AR TRANSACTION - TRANSACTION DATE (433-11)</t>
   </si>
   <si>
-    <t>IB.ARTransaction.TransactionDateTime,IB.ARTransactionComment.TransactionDateTime,IB.ARTransactionDescription.TransactionDateTime,IB.ARTransactionFiscalYear.TransactionDateTime</t>
+    <t>IB.ARTransaction.TransactionDateTime
+IB.ARTransactionComment.TransactionDateTime
+IB.ARTransactionDescription.TransactionDateTime
+IB.ARTransactionFiscalYear.TransactionDateTime</t>
   </si>
   <si>
     <t>PaymentReconciliation.paymentAmount</t>
@@ -2232,7 +2243,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="123.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="150.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.65234375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="50.96484375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
+++ b/docs/StructureDefinition-DebtPortalPaymentReconciliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
